--- a/jmeter/metricas.xlsx
+++ b/jmeter/metricas.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
   <si>
     <t>Average</t>
   </si>
@@ -88,6 +89,18 @@
   <si>
     <t>Con mongo y redis</t>
   </si>
+  <si>
+    <t>Found-Prices</t>
+  </si>
+  <si>
+    <t>Found Prices En Memoria</t>
+  </si>
+  <si>
+    <t>Found Prices en Mongo</t>
+  </si>
+  <si>
+    <t>Found Prices en Mongo + Redis</t>
+  </si>
 </sst>
 </file>
 
@@ -137,12 +150,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -274,15 +290,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$5,Sheet1!$H$5)</c:f>
+              <c:f>(Sheet1!$D$4,Sheet1!$D$5)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8519.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>8519.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -523,11 +539,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2089102256"/>
-        <c:axId val="-2089284832"/>
+        <c:axId val="-2092571216"/>
+        <c:axId val="-2120256160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2089102256"/>
+        <c:axId val="-2092571216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -569,7 +585,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2089284832"/>
+        <c:crossAx val="-2120256160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -577,7 +593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2089284832"/>
+        <c:axId val="-2120256160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -627,7 +643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2089102256"/>
+        <c:crossAx val="-2092571216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1084,11 +1100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2072859824"/>
-        <c:axId val="-2072436560"/>
+        <c:axId val="-2116185216"/>
+        <c:axId val="-2079903488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2072859824"/>
+        <c:axId val="-2116185216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,7 +1146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2072436560"/>
+        <c:crossAx val="-2079903488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1138,7 +1154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2072436560"/>
+        <c:axId val="-2079903488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2072859824"/>
+        <c:crossAx val="-2116185216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1645,11 +1661,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2089645792"/>
-        <c:axId val="-2075726416"/>
+        <c:axId val="-2094126224"/>
+        <c:axId val="-2072428784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2089645792"/>
+        <c:axId val="-2094126224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,7 +1707,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075726416"/>
+        <c:crossAx val="-2072428784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1699,7 +1715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075726416"/>
+        <c:axId val="-2072428784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,7 +1765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2089645792"/>
+        <c:crossAx val="-2094126224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3452,21 +3468,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>459154</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>167054</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>765878</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>48474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>48846</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>122898</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123108</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3483,19 +3501,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>449385</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9769</xdr:rowOff>
+      <xdr:colOff>48473</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>29084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>39077</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>85969</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>413738</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>153758</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3514,20 +3532,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>205153</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>87251</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>420077</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>507328</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>94024</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3810,10 +3828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H25"/>
+  <dimension ref="B2:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3824,296 +3842,296 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>27</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>7</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>208</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>8519</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>112</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>19123</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>36</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>6</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>229</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>14842</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>30</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>31304</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>4769</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>99</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>11981</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>13373</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>67</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>37627</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>8258</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>52</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>19831</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>20493</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>28</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>48937</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22">
@@ -4125,90 +4143,138 @@
       <c r="F22">
         <v>927</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>6425</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>78</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>17147</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>508</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>10</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>1251</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>10930</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>10</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>25457</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="1" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="P29:U29"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="I29:N29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>